--- a/Log_and_Hours8262022.xlsx
+++ b/Log_and_Hours8262022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\Desktop\DGM3220\DGM3220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{086177F2-02C6-4EEA-9AF0-A758FA0DEB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804128C9-D1E1-425A-B992-D94EC6296C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5140FF8C-46F6-47B1-9D40-600F72D26DEF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>Still setting Preferences and Brainstorming</t>
+  </si>
+  <si>
+    <t>4pm-8pm</t>
+  </si>
+  <si>
+    <t>Storyboarding on Storyboard</t>
+  </si>
+  <si>
+    <t>8/302022</t>
+  </si>
+  <si>
+    <t>8:30-11:30</t>
+  </si>
+  <si>
+    <t>Classtime working on ToonBoom</t>
+  </si>
+  <si>
+    <t>5pm-7pm</t>
+  </si>
+  <si>
+    <t>Finish Storyboard</t>
   </si>
 </sst>
 </file>
@@ -113,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05D2DF6-032B-4F76-A235-FA2E8C1B02F9}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +542,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
